--- a/Ressources/Materiel/Matos crous.xlsx
+++ b/Ressources/Materiel/Matos crous.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Ressources\Materiel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RadiateurCrous\Ressources\Materiel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -589,7 +589,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -732,7 +732,7 @@
       <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="10" t="s">
